--- a/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H2">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>270.8146317492725</v>
+        <v>563.5385240069185</v>
       </c>
       <c r="R2">
-        <v>270.8146317492725</v>
+        <v>5071.846716062267</v>
       </c>
       <c r="S2">
-        <v>0.1548566293584516</v>
+        <v>0.1955845735081994</v>
       </c>
       <c r="T2">
-        <v>0.1548566293584516</v>
+        <v>0.1955845735081994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H3">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>426.5952134879344</v>
+        <v>729.8595041354858</v>
       </c>
       <c r="R3">
-        <v>426.5952134879344</v>
+        <v>6568.735537219372</v>
       </c>
       <c r="S3">
-        <v>0.243934740285199</v>
+        <v>0.2533087868106287</v>
       </c>
       <c r="T3">
-        <v>0.243934740285199</v>
+        <v>0.2533087868106287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H4">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I4">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J4">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>229.9936607701578</v>
+        <v>457.8048098671596</v>
       </c>
       <c r="R4">
-        <v>229.9936607701578</v>
+        <v>4120.243288804437</v>
       </c>
       <c r="S4">
-        <v>0.1315144711739655</v>
+        <v>0.1588880878120259</v>
       </c>
       <c r="T4">
-        <v>0.1315144711739655</v>
+        <v>0.1588880878120259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H5">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I5">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J5">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>120.6215308228208</v>
+        <v>207.4957063812766</v>
       </c>
       <c r="R5">
-        <v>120.6215308228208</v>
+        <v>1867.461357431489</v>
       </c>
       <c r="S5">
-        <v>0.06897353946729204</v>
+        <v>0.07201452519839853</v>
       </c>
       <c r="T5">
-        <v>0.06897353946729204</v>
+        <v>0.07201452519839853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H6">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J6">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>10.73371558501879</v>
+        <v>18.74360377362356</v>
       </c>
       <c r="R6">
-        <v>10.73371558501879</v>
+        <v>168.692433962612</v>
       </c>
       <c r="S6">
-        <v>0.006137729727717183</v>
+        <v>0.006505251360643152</v>
       </c>
       <c r="T6">
-        <v>0.006137729727717183</v>
+        <v>0.006505251360643152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H7">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>16.90806608909218</v>
+        <v>24.27553179267823</v>
       </c>
       <c r="R7">
-        <v>16.90806608909218</v>
+        <v>218.479786134104</v>
       </c>
       <c r="S7">
-        <v>0.009668333304645334</v>
+        <v>0.008425190701421181</v>
       </c>
       <c r="T7">
-        <v>0.009668333304645334</v>
+        <v>0.008425190701421179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H8">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J8">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>9.115779768316749</v>
+        <v>15.22684181517245</v>
       </c>
       <c r="R8">
-        <v>9.115779768316749</v>
+        <v>137.041576336552</v>
       </c>
       <c r="S8">
-        <v>0.005212565213989</v>
+        <v>0.005284705899291381</v>
       </c>
       <c r="T8">
-        <v>0.005212565213989</v>
+        <v>0.005284705899291381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H9">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J9">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>4.780824421925698</v>
+        <v>6.901422244366445</v>
       </c>
       <c r="R9">
-        <v>4.780824421925698</v>
+        <v>62.11280019929801</v>
       </c>
       <c r="S9">
-        <v>0.002733760545919877</v>
+        <v>0.002395243037985882</v>
       </c>
       <c r="T9">
-        <v>0.002733760545919877</v>
+        <v>0.002395243037985882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H10">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I10">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J10">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>96.40177994118224</v>
+        <v>146.4655410604136</v>
       </c>
       <c r="R10">
-        <v>96.40177994118224</v>
+        <v>1318.189869543722</v>
       </c>
       <c r="S10">
-        <v>0.05512425458484032</v>
+        <v>0.05083308267598927</v>
       </c>
       <c r="T10">
-        <v>0.05512425458484032</v>
+        <v>0.05083308267598927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H11">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I11">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J11">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>151.8549334982008</v>
+        <v>189.6929182608582</v>
       </c>
       <c r="R11">
-        <v>151.8549334982008</v>
+        <v>1707.236264347724</v>
       </c>
       <c r="S11">
-        <v>0.08683335535117878</v>
+        <v>0.06583579814877075</v>
       </c>
       <c r="T11">
-        <v>0.08683335535117878</v>
+        <v>0.06583579814877075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H12">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I12">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J12">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>81.87075465685666</v>
+        <v>118.9849962705125</v>
       </c>
       <c r="R12">
-        <v>81.87075465685666</v>
+        <v>1070.864966434612</v>
       </c>
       <c r="S12">
-        <v>0.04681515554496121</v>
+        <v>0.04129554370830763</v>
       </c>
       <c r="T12">
-        <v>0.04681515554496121</v>
+        <v>0.04129554370830763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H13">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I13">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J13">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N13">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q13">
-        <v>42.93759977236288</v>
+        <v>53.92882581790145</v>
       </c>
       <c r="R13">
-        <v>42.93759977236288</v>
+        <v>485.3594323611131</v>
       </c>
       <c r="S13">
-        <v>0.02455248422340163</v>
+        <v>0.01871681517422354</v>
       </c>
       <c r="T13">
-        <v>0.02455248422340163</v>
+        <v>0.01871681517422354</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H14">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I14">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J14">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N14">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q14">
-        <v>73.95033961614948</v>
+        <v>100.2341817678802</v>
       </c>
       <c r="R14">
-        <v>73.95033961614948</v>
+        <v>902.1076359109219</v>
       </c>
       <c r="S14">
-        <v>0.04228612117040994</v>
+        <v>0.0347877897550328</v>
       </c>
       <c r="T14">
-        <v>0.04228612117040994</v>
+        <v>0.0347877897550328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H15">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I15">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J15">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N15">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q15">
-        <v>116.4887610107547</v>
+        <v>129.8169816011249</v>
       </c>
       <c r="R15">
-        <v>116.4887610107547</v>
+        <v>1168.352834410124</v>
       </c>
       <c r="S15">
-        <v>0.06661034808846199</v>
+        <v>0.04505494815162994</v>
       </c>
       <c r="T15">
-        <v>0.06661034808846199</v>
+        <v>0.04505494815162994</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H16">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I16">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J16">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N16">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q16">
-        <v>62.80350959493656</v>
+        <v>81.42777924064578</v>
       </c>
       <c r="R16">
-        <v>62.80350959493656</v>
+        <v>732.8500131658119</v>
       </c>
       <c r="S16">
-        <v>0.03591216525094264</v>
+        <v>0.02826074313653487</v>
       </c>
       <c r="T16">
-        <v>0.03591216525094264</v>
+        <v>0.02826074313653487</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.88551048874402</v>
+        <v>3.209654333333333</v>
       </c>
       <c r="H17">
-        <v>2.88551048874402</v>
+        <v>9.628962999999999</v>
       </c>
       <c r="I17">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="J17">
-        <v>0.1636429812184386</v>
+        <v>0.1209123959641148</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N17">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q17">
-        <v>32.9376707297921</v>
+        <v>36.90637190443478</v>
       </c>
       <c r="R17">
-        <v>32.9376707297921</v>
+        <v>332.157347139913</v>
       </c>
       <c r="S17">
-        <v>0.01883434670862402</v>
+        <v>0.01280891492091719</v>
       </c>
       <c r="T17">
-        <v>0.01883434670862402</v>
+        <v>0.01280891492091719</v>
       </c>
     </row>
   </sheetData>
